--- a/Doc/img/interfaces/pagina_visualizzazione_casi.xlsx
+++ b/Doc/img/interfaces/pagina_visualizzazione_casi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Caso:</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>Descrizione</t>
+  </si>
+  <si>
+    <t>Filtro casi</t>
+  </si>
+  <si>
+    <t>Modifica</t>
+  </si>
+  <si>
+    <t>Aggiungi caso</t>
   </si>
 </sst>
 </file>
@@ -177,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,6 +208,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:I16"/>
+  <dimension ref="B1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,16 +527,59 @@
     <col min="4" max="4" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -532,8 +587,10 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
         <v>0</v>
@@ -549,8 +606,10 @@
       <c r="I7" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="8" t="s">
         <v>3</v>
@@ -562,8 +621,10 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -571,8 +632,10 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="13" t="s">
         <v>10</v>
@@ -582,8 +645,10 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -591,8 +656,10 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -600,8 +667,10 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -609,8 +678,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
         <v>7</v>
@@ -624,17 +695,23 @@
         <v>4</v>
       </c>
       <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -642,10 +719,270 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="23" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="12">
+        <v>4</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="5"/>
+      <c r="C40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D10:H12"/>
+    <mergeCell ref="D32:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doc/img/interfaces/pagina_visualizzazione_casi.xlsx
+++ b/Doc/img/interfaces/pagina_visualizzazione_casi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Caso:</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Aggiungi caso</t>
+  </si>
+  <si>
+    <t>Variante di</t>
+  </si>
+  <si>
+    <t>Case_id</t>
   </si>
 </sst>
 </file>
@@ -206,11 +212,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,8 +632,12 @@
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -637,35 +647,35 @@
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
@@ -853,8 +863,12 @@
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F31" s="8"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -864,35 +878,35 @@
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
@@ -925,7 +939,7 @@
     <row r="37" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="14"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
